--- a/db/userDB.xlsx
+++ b/db/userDB.xlsx
@@ -1,38 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han-yohan/Development/PYTHON_LABS/DiscordBot/db/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B342E4D1-1F91-1240-B4A5-C4CF05A8A1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="시트1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <color theme="1"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,81 +70,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -326,50 +286,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>money</t>
-        </is>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" s="1" t="n"/>
+      <c r="D1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>짱구는목말라</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1.006918120000193e+18</v>
-      </c>
-      <c r="C2" t="n">
-        <v>30000000</v>
-      </c>
-    </row>
+    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/db/userDB.xlsx
+++ b/db/userDB.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han-yohan/Development/PYTHON_LABS/DiscordBot/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyohan/Development/PYTHON_LABS/Discord/Obunga Bot#1375/DiscordBotServer/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B342E4D1-1F91-1240-B4A5-C4CF05A8A1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914A56CB-F7B9-304A-8CB4-DFD3537E5DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="시트1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -29,23 +29,142 @@
   </si>
   <si>
     <t>money</t>
+  </si>
+  <si>
+    <t>lvl</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>BRL</t>
+  </si>
+  <si>
+    <t>RUB</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>BAIT</t>
+  </si>
+  <si>
+    <t>WAVES</t>
+  </si>
+  <si>
+    <t>BTC</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>DOGE</t>
+  </si>
+  <si>
+    <t>LTC</t>
+  </si>
+  <si>
+    <t>ETC</t>
+  </si>
+  <si>
+    <t>LUNC</t>
+  </si>
+  <si>
+    <t>SAND</t>
+  </si>
+  <si>
+    <t>BNB</t>
+  </si>
+  <si>
+    <t>XRP</t>
+  </si>
+  <si>
+    <t>GRAP</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>0x99ba3f44dc40014</t>
+  </si>
+  <si>
+    <t>godzero</t>
+  </si>
+  <si>
+    <t>0x9a8ada9a2440052</t>
+  </si>
+  <si>
+    <t>짱구는목말라</t>
+  </si>
+  <si>
+    <t>0xdf94ab1fc84001e</t>
+  </si>
+  <si>
+    <t>Bajirak Karlcux</t>
+  </si>
+  <si>
+    <t>0x3e47ed05040000b</t>
+  </si>
+  <si>
+    <t>일델</t>
+  </si>
+  <si>
+    <t>0x3e47e3701420015</t>
+  </si>
+  <si>
+    <t>고준</t>
+  </si>
+  <si>
+    <t>0xa6efb5a83000014</t>
+  </si>
+  <si>
+    <t>윤기현</t>
+  </si>
+  <si>
+    <t>0xa1af2b66e840014</t>
+  </si>
+  <si>
+    <t>Movin_Gun</t>
+  </si>
+  <si>
+    <t>0x9b820a728400001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -57,9 +176,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -71,10 +199,10 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -90,56 +218,150 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -282,36 +504,749 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:26">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>1402413700</v>
+      </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>409</v>
+      </c>
+      <c r="F2">
+        <v>198064000</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>1473311394</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>240</v>
+      </c>
+      <c r="F3">
+        <v>1110</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>7195822.6999999899</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>392</v>
+      </c>
+      <c r="F4">
+        <v>223271800</v>
+      </c>
+      <c r="G4">
+        <v>18082.8</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>38000000.99999997</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>320</v>
+      </c>
+      <c r="F5">
+        <v>287788499</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>30000000</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>500000000</v>
+      </c>
+      <c r="D6">
+        <v>42</v>
+      </c>
+      <c r="E6">
+        <v>1610</v>
+      </c>
+      <c r="F6">
+        <v>110473963768</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>100000</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>841955205</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>108</v>
+      </c>
+      <c r="F7">
+        <v>35166000</v>
+      </c>
+      <c r="G7">
+        <v>4687.8999999999996</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>100</v>
+      </c>
+      <c r="S7">
+        <v>21000</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>1353471258.45</v>
+      </c>
+      <c r="D8">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>608</v>
+      </c>
+      <c r="F8">
+        <v>53933765</v>
+      </c>
+      <c r="G8">
+        <v>5200</v>
+      </c>
+      <c r="H8">
+        <v>9537500</v>
+      </c>
+      <c r="I8">
+        <v>1000</v>
+      </c>
+      <c r="J8">
+        <v>1000</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>3000</v>
+      </c>
+      <c r="M8">
+        <v>100</v>
+      </c>
+      <c r="N8">
+        <v>500</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>233294000</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>652908000</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>